--- a/assets/rol_itens_portaria.xlsx
+++ b/assets/rol_itens_portaria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.gontijo\www\node-xls-to-json\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BF0CED-68E8-40E0-91BB-5993E0C2E4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E3E22-D9DD-439A-8B23-B174DFB68FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57659C1C-B325-4A49-A2F1-B246A2C49E26}"/>
   </bookViews>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B530AD4-F179-4CFC-AC33-32BC86E08801}">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="B51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2808,7 +2808,7 @@
         <v>65</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>176</v>
